--- a/src/fee.xlsx
+++ b/src/fee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\fee\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76548C2-AE5A-4EE0-8839-6E9DB8E9C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFAFB0-F42F-464E-A679-12FE650401E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,59 +26,6 @@
     <t>江安县人力资源和社会保障局差旅费报销明细表</t>
   </si>
   <si>
-    <r>
-      <t>填报日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
     <t>出差人姓名</t>
   </si>
   <si>
@@ -279,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${qian}仟${bai}佰${shi}拾${yuan}元${jiao}角${fen}分  小写：${xiaoxie}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|t.total|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +243,64 @@
   </si>
   <si>
     <t>|t.i|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${qian}仟${bai}佰${shi}拾${yuan}元${jiao}角${fen}分  小写：${xiaoxie}.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>填报日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ${year}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ${month} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  ${day}  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,10 +475,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,25 +514,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,31 +541,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,268 +873,269 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="3" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="3.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="5.125" style="2" customWidth="1"/>
-    <col min="10" max="14" width="3.25" style="2" customWidth="1"/>
+    <col min="10" max="13" width="3.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="3.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="7.25" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
+      <c r="A3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-    </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="13"/>
+      <c r="O5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="M6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="26.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="K7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1193,175 +1201,175 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="B3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
     </row>
     <row r="4" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+    </row>
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="20"/>
-      <c r="U5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1376,18 +1384,18 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="B8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1402,18 +1410,18 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="B9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1428,18 +1436,18 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="B10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1454,18 +1462,18 @@
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="B11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1480,20 +1488,20 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="24" t="s">
-        <v>16</v>
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="26"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="22"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1508,87 +1516,88 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="20"/>
+      <c r="B13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="26"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="24"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-    </row>
-    <row r="15" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="B4:D4"/>
@@ -1599,6 +1608,7 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="B5:D6"/>
     <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="B15:U15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
@@ -1606,22 +1616,20 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="F13:N13"/>
     <mergeCell ref="P13:U13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:U14"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
